--- a/Create_order/Excel Source/channel_price.xlsx
+++ b/Create_order/Excel Source/channel_price.xlsx
@@ -1076,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,6 +1088,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,16 +1418,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1718,15 +1721,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3241"/>
+  <dimension ref="A1:Q3241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3205" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3193" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3223" sqref="H3223"/>
+      <selection pane="bottomLeft" activeCell="U3211" sqref="U3211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.88888888888889" style="1" customWidth="1"/>
@@ -65641,7 +65644,7 @@
         <v>33.99</v>
       </c>
     </row>
-    <row r="3196" spans="2:7">
+    <row r="3196" spans="2:11">
       <c r="B3196" s="3" t="s">
         <v>132</v>
       </c>
@@ -65660,8 +65663,9 @@
       <c r="G3196" s="3">
         <v>69.99</v>
       </c>
-    </row>
-    <row r="3197" spans="2:7">
+      <c r="K3196" s="4"/>
+    </row>
+    <row r="3197" spans="2:11">
       <c r="B3197" s="3" t="s">
         <v>132</v>
       </c>
@@ -65680,8 +65684,9 @@
       <c r="G3197" s="3">
         <v>139.99</v>
       </c>
-    </row>
-    <row r="3198" spans="2:7">
+      <c r="K3197" s="4"/>
+    </row>
+    <row r="3198" spans="2:11">
       <c r="B3198" s="3" t="s">
         <v>132</v>
       </c>
@@ -65700,8 +65705,9 @@
       <c r="G3198" s="3">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="3199" spans="2:7">
+      <c r="K3198" s="4"/>
+    </row>
+    <row r="3199" spans="2:11">
       <c r="B3199" s="3" t="s">
         <v>132</v>
       </c>
@@ -65720,8 +65726,9 @@
       <c r="G3199" s="3">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="3200" spans="2:7">
+      <c r="K3199" s="4"/>
+    </row>
+    <row r="3200" spans="2:11">
       <c r="B3200" s="3" t="s">
         <v>132</v>
       </c>
@@ -65740,8 +65747,9 @@
       <c r="G3200" s="3">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="3201" spans="2:7">
+      <c r="K3200" s="4"/>
+    </row>
+    <row r="3201" spans="2:11">
       <c r="B3201" s="3" t="s">
         <v>132</v>
       </c>
@@ -65760,8 +65768,9 @@
       <c r="G3201" s="3">
         <v>10.99</v>
       </c>
-    </row>
-    <row r="3202" spans="2:7">
+      <c r="K3201" s="4"/>
+    </row>
+    <row r="3202" spans="2:11">
       <c r="B3202" s="3" t="s">
         <v>132</v>
       </c>
@@ -65780,8 +65789,9 @@
       <c r="G3202" s="3">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="3203" spans="2:7">
+      <c r="K3202" s="4"/>
+    </row>
+    <row r="3203" spans="2:11">
       <c r="B3203" s="3" t="s">
         <v>132</v>
       </c>
@@ -65800,8 +65810,9 @@
       <c r="G3203" s="3">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="3204" spans="2:7">
+      <c r="K3203" s="4"/>
+    </row>
+    <row r="3204" spans="2:11">
       <c r="B3204" s="3" t="s">
         <v>132</v>
       </c>
@@ -65820,8 +65831,9 @@
       <c r="G3204" s="3">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="3205" spans="2:7">
+      <c r="K3204" s="4"/>
+    </row>
+    <row r="3205" spans="2:17">
       <c r="B3205" s="3" t="s">
         <v>132</v>
       </c>
@@ -65840,8 +65852,10 @@
       <c r="G3205" s="3">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="3206" spans="2:7">
+      <c r="K3205" s="4"/>
+      <c r="Q3205" s="4"/>
+    </row>
+    <row r="3206" spans="2:17">
       <c r="B3206" s="3" t="s">
         <v>132</v>
       </c>
@@ -65860,8 +65874,10 @@
       <c r="G3206" s="3">
         <v>19.99</v>
       </c>
-    </row>
-    <row r="3207" spans="2:7">
+      <c r="K3206" s="4"/>
+      <c r="Q3206" s="4"/>
+    </row>
+    <row r="3207" spans="2:17">
       <c r="B3207" s="3" t="s">
         <v>132</v>
       </c>
@@ -65880,8 +65896,10 @@
       <c r="G3207" s="3">
         <v>39.99</v>
       </c>
-    </row>
-    <row r="3208" spans="2:7">
+      <c r="K3207" s="4"/>
+      <c r="Q3207" s="4"/>
+    </row>
+    <row r="3208" spans="2:17">
       <c r="B3208" s="3" t="s">
         <v>132</v>
       </c>
@@ -65900,8 +65918,10 @@
       <c r="G3208" s="3">
         <v>79.99</v>
       </c>
-    </row>
-    <row r="3209" spans="2:7">
+      <c r="K3208" s="4"/>
+      <c r="Q3208" s="4"/>
+    </row>
+    <row r="3209" spans="2:17">
       <c r="B3209" s="3" t="s">
         <v>132</v>
       </c>
@@ -65920,8 +65940,10 @@
       <c r="G3209" s="3">
         <v>149.99</v>
       </c>
-    </row>
-    <row r="3210" spans="2:7">
+      <c r="K3209" s="4"/>
+      <c r="Q3209" s="4"/>
+    </row>
+    <row r="3210" spans="2:17">
       <c r="B3210" s="3" t="s">
         <v>132</v>
       </c>
@@ -65940,8 +65962,10 @@
       <c r="G3210" s="3">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="3211" spans="2:7">
+      <c r="K3210" s="4"/>
+      <c r="Q3210" s="4"/>
+    </row>
+    <row r="3211" spans="2:11">
       <c r="B3211" s="3" t="s">
         <v>132</v>
       </c>
@@ -65960,8 +65984,9 @@
       <c r="G3211" s="3">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="3212" spans="2:7">
+      <c r="K3211" s="4"/>
+    </row>
+    <row r="3212" spans="2:11">
       <c r="B3212" s="3" t="s">
         <v>132</v>
       </c>
@@ -65980,8 +66005,9 @@
       <c r="G3212" s="3">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="3213" spans="2:7">
+      <c r="K3212" s="4"/>
+    </row>
+    <row r="3213" spans="2:11">
       <c r="B3213" s="3" t="s">
         <v>132</v>
       </c>
@@ -66000,8 +66026,9 @@
       <c r="G3213" s="3">
         <v>6.29</v>
       </c>
-    </row>
-    <row r="3214" spans="2:7">
+      <c r="K3213" s="4"/>
+    </row>
+    <row r="3214" spans="2:11">
       <c r="B3214" s="3" t="s">
         <v>132</v>
       </c>
@@ -66020,6 +66047,7 @@
       <c r="G3214" s="3">
         <v>13.99</v>
       </c>
+      <c r="K3214" s="4"/>
     </row>
     <row r="3215" spans="2:7">
       <c r="B3215" s="3" t="s">

--- a/Create_order/Excel Source/channel_price.xlsx
+++ b/Create_order/Excel Source/channel_price.xlsx
@@ -1726,7 +1726,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3193" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U3211" sqref="U3211"/>
+      <selection pane="bottomLeft" activeCell="K3212" sqref="K3212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
